--- a/tables/2021-10/sup_table_overview_Oct.xlsx
+++ b/tables/2021-10/sup_table_overview_Oct.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Report from 2021-09-27 to 2021-" r:id="rId3" sheetId="1"/>
+    <sheet name="Report from 2021-10-04 to 2021-" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="191">
   <si>
     <t>Population size</t>
   </si>
@@ -191,382 +191,400 @@
     <t>TI</t>
   </si>
   <si>
-    <t>1.20 (1.03-1.32)</t>
-  </si>
-  <si>
-    <t>1.07 (0.92-1.24)</t>
-  </si>
-  <si>
-    <t>1.09 (0.96-1.24)</t>
-  </si>
-  <si>
-    <t>0.98 (0.74-1.26)</t>
-  </si>
-  <si>
-    <t>1.07 (0.95-1.19)</t>
-  </si>
-  <si>
-    <t>1.07 (0.89-1.28)</t>
-  </si>
-  <si>
-    <t>1.12 (0.86-1.41)</t>
-  </si>
-  <si>
-    <t>1.28 (1.15-1.42)</t>
-  </si>
-  <si>
-    <t>1.06 (0.90-1.26)</t>
-  </si>
-  <si>
-    <t>1.08 (0.62-1.67)</t>
-  </si>
-  <si>
-    <t>1.32 (1.10-1.51)</t>
-  </si>
-  <si>
-    <t>1.23 (1.07-1.39)</t>
-  </si>
-  <si>
-    <t>1.34 (1.09-1.54)</t>
-  </si>
-  <si>
-    <t>1.37 (1.07-1.65)</t>
-  </si>
-  <si>
-    <t>1.33 (1.11-1.56)</t>
-  </si>
-  <si>
-    <t>1.14 (0.88-1.41)</t>
-  </si>
-  <si>
-    <t>0.98 (0.86-1.11)</t>
-  </si>
-  <si>
-    <t>1.29 (0.97-1.72)</t>
-  </si>
-  <si>
-    <t>1.04 (0.77-1.36)</t>
-  </si>
-  <si>
-    <t>1.25 (1.06-1.45)</t>
-  </si>
-  <si>
-    <t>0.89 (0.59-1.28)</t>
-  </si>
-  <si>
-    <t>1.22 (0.97-1.52)</t>
-  </si>
-  <si>
-    <t>1.21 (0.91-1.45)</t>
-  </si>
-  <si>
-    <t>1.16 (0.80-1.65)</t>
-  </si>
-  <si>
-    <t>1.14 (0.90-1.40)</t>
-  </si>
-  <si>
-    <t>1.26 (0.83-1.74)</t>
-  </si>
-  <si>
-    <t>1.19 (1.05-1.33)</t>
-  </si>
-  <si>
-    <t>1.33 (0.92-1.70)</t>
-  </si>
-  <si>
-    <t>1.30 (1.11-1.47)</t>
-  </si>
-  <si>
-    <t>1.24 (1.14-1.34)</t>
-  </si>
-  <si>
-    <t>1.12 (0.88-1.42)</t>
-  </si>
-  <si>
-    <t>1.27 (1.05-1.50)</t>
-  </si>
-  <si>
-    <t>1.10 (0.85-1.38)</t>
-  </si>
-  <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>4.77</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>1.94</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>5.76</t>
-  </si>
-  <si>
-    <t>5.87</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>10.30</t>
-  </si>
-  <si>
-    <t>11.35</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>7.31</t>
-  </si>
-  <si>
-    <t>19.71</t>
-  </si>
-  <si>
-    <t>15.48</t>
-  </si>
-  <si>
-    <t>6.29</t>
-  </si>
-  <si>
-    <t>11.28</t>
-  </si>
-  <si>
-    <t>7.43</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>5.49</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>21.5</t>
+    <t>1.21 (1.08-1.38)</t>
+  </si>
+  <si>
+    <t>1.09 (0.95-1.26)</t>
+  </si>
+  <si>
+    <t>1.12 (0.98-1.26)</t>
+  </si>
+  <si>
+    <t>1.02 (0.77-1.31)</t>
+  </si>
+  <si>
+    <t>1.08 (0.96-1.19)</t>
+  </si>
+  <si>
+    <t>1.12 (0.94-1.31)</t>
+  </si>
+  <si>
+    <t>1.17 (0.96-1.46)</t>
+  </si>
+  <si>
+    <t>1.31 (1.19-1.43)</t>
+  </si>
+  <si>
+    <t>1.12 (0.94-1.32)</t>
+  </si>
+  <si>
+    <t>1.12 (0.65-1.73)</t>
+  </si>
+  <si>
+    <t>1.34 (1.12-1.56)</t>
+  </si>
+  <si>
+    <t>1.29 (1.13-1.44)</t>
+  </si>
+  <si>
+    <t>1.34 (1.14-1.54)</t>
+  </si>
+  <si>
+    <t>1.38 (1.12-1.67)</t>
+  </si>
+  <si>
+    <t>1.37 (1.14-1.61)</t>
+  </si>
+  <si>
+    <t>1.22 (0.98-1.46)</t>
+  </si>
+  <si>
+    <t>1.06 (0.92-1.21)</t>
+  </si>
+  <si>
+    <t>1.29 (1.00-1.61)</t>
+  </si>
+  <si>
+    <t>1.05 (0.78-1.36)</t>
+  </si>
+  <si>
+    <t>1.29 (1.12-1.46)</t>
+  </si>
+  <si>
+    <t>0.94 (0.60-1.38)</t>
+  </si>
+  <si>
+    <t>1.32 (1.04-1.60)</t>
+  </si>
+  <si>
+    <t>1.27 (0.97-1.49)</t>
+  </si>
+  <si>
+    <t>1.20 (0.81-1.64)</t>
+  </si>
+  <si>
+    <t>1.18 (0.94-1.45)</t>
+  </si>
+  <si>
+    <t>1.33 (0.87-1.81)</t>
+  </si>
+  <si>
+    <t>1.23 (1.10-1.38)</t>
+  </si>
+  <si>
+    <t>1.35 (1.00-1.73)</t>
+  </si>
+  <si>
+    <t>1.31 (1.15-1.48)</t>
+  </si>
+  <si>
+    <t>1.29 (1.19-1.39)</t>
+  </si>
+  <si>
+    <t>1.21 (0.98-1.48)</t>
+  </si>
+  <si>
+    <t>1.35 (1.16-1.52)</t>
+  </si>
+  <si>
+    <t>1.12 (0.86-1.40)</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>7.63</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.54</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>10.98</t>
+  </si>
+  <si>
+    <t>12.76</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>23.14</t>
+  </si>
+  <si>
+    <t>17.16</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>12.62</t>
+  </si>
+  <si>
+    <t>9.48</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>3.06</t>
   </si>
   <si>
     <t>22.1</t>
   </si>
   <si>
-    <t>28.4</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>24.9</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>43.6</t>
-  </si>
-  <si>
-    <t>39.3</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>24.6</t>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>28.9</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>27.8</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>6.2</t>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>59.1</t>
+  </si>
+  <si>
+    <t>42.9</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>5.9</t>
   </si>
   <si>
     <t>20.0</t>
   </si>
   <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>54.3</t>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>55.1</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>100.0 (99.9-100.0)</t>
-  </si>
-  <si>
-    <t>99.9 (99.7-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (99.4-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (66.4-100.0)</t>
-  </si>
-  <si>
-    <t>99.8 (99.1-100.0)</t>
+    <t>99.9 (99.9-100.0)</t>
+  </si>
+  <si>
+    <t>99.9 (99.6-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (99.3-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (54.1-100.0)</t>
+  </si>
+  <si>
+    <t>99.8 (98.9-100.0)</t>
   </si>
   <si>
     <t>100.0 (98.9-100.0)</t>
   </si>
   <si>
-    <t>100.0 (99.7-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (94.4-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (92.7-100.0)</t>
+    <t>100.0 (99.6-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (93.9-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (91.6-100.0)</t>
+  </si>
+  <si>
+    <t>99.9 (99.5-100.0)</t>
+  </si>
+  <si>
+    <t>99.5 (98.1-99.9)</t>
+  </si>
+  <si>
+    <t>100.0 (98.4-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (98.5-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (99.1-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (76.8-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (75.3-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (94.7-100.0)</t>
   </si>
   <si>
     <t>100.0 (99.8-100.0)</t>
   </si>
   <si>
-    <t>100.0 (99.1-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (98.6-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (98.8-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (99.6-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (99.3-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (81.5-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (80.5-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (95.8-100.0)</t>
-  </si>
-  <si>
     <t>100.0 (88.8-100.0)</t>
   </si>
   <si>
-    <t>100.0 (94.5-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (78.2-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (98.2-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (97.8-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (98.7-100.0)</t>
-  </si>
-  <si>
-    <t>99.7 (98.4-100.0)</t>
+    <t>100.0 (92.5-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (71.5-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (99.5-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (97.7-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (97.3-100.0)</t>
+  </si>
+  <si>
+    <t>99.8 (99.0-100.0)</t>
+  </si>
+  <si>
+    <t>99.7 (98.1-100.0)</t>
   </si>
   <si>
     <t>&lt;0.1</t>
   </si>
   <si>
-    <t>0.2 (0.0-0.9)</t>
-  </si>
-  <si>
-    <t>0.3 (0.0-1.6)</t>
+    <t>0.1 (0.0-0.5)</t>
+  </si>
+  <si>
+    <t>0.5 (0.1-1.9)</t>
+  </si>
+  <si>
+    <t>0.2 (0.0-1.1)</t>
+  </si>
+  <si>
+    <t>0.2 (0.0-1.0)</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.9)</t>
   </si>
 </sst>
 </file>
@@ -706,79 +724,79 @@
         <v>8670300.0</v>
       </c>
       <c r="C2" t="n">
-        <v>40636.0</v>
+        <v>32996.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1172.0</v>
+        <v>761.0</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>990078.0</v>
+        <v>738766.0</v>
       </c>
       <c r="G2" t="n">
-        <v>11419.0</v>
+        <v>8521.0</v>
       </c>
       <c r="H2" t="s">
         <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>8757.0</v>
+        <v>7290.0</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K2" t="n">
         <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="n">
-        <v>8755.0</v>
+        <v>7286.0</v>
       </c>
       <c r="R2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="W2" t="n">
         <v>0.0</v>
       </c>
       <c r="X2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y2" t="n">
         <v>2.0</v>
       </c>
       <c r="Z2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -789,76 +807,76 @@
         <v>1845502.0</v>
       </c>
       <c r="C3" t="n">
-        <v>7308.0</v>
+        <v>6012.0</v>
       </c>
       <c r="D3" t="n">
-        <v>990.0</v>
+        <v>652.0</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>210925.0</v>
+        <v>162685.0</v>
       </c>
       <c r="G3" t="n">
-        <v>11429.0</v>
+        <v>8815.0</v>
       </c>
       <c r="H3" t="s">
         <v>93</v>
       </c>
       <c r="I3" t="n">
-        <v>1612.0</v>
+        <v>1382.0</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K3" t="n">
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
       </c>
       <c r="N3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q3" t="n">
-        <v>1611.0</v>
+        <v>1381.0</v>
       </c>
       <c r="R3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
       </c>
       <c r="Z3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA3" t="n">
         <v>4.0</v>
@@ -872,76 +890,76 @@
         <v>506343.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2242.0</v>
+        <v>1901.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1107.0</v>
+        <v>751.0</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>82771.0</v>
+        <v>63083.0</v>
       </c>
       <c r="G4" t="n">
-        <v>16347.0</v>
+        <v>12459.0</v>
       </c>
       <c r="H4" t="s">
         <v>94</v>
       </c>
       <c r="I4" t="n">
-        <v>636.0</v>
+        <v>548.0</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4" t="n">
-        <v>636.0</v>
+        <v>548.0</v>
       </c>
       <c r="R4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S4" t="n">
         <v>0.0</v>
       </c>
       <c r="T4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W4" t="n">
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y4" t="n">
         <v>0.0</v>
       </c>
       <c r="Z4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA4" t="n">
         <v>0.0</v>
@@ -955,76 +973,76 @@
         <v>175894.0</v>
       </c>
       <c r="C5" t="n">
-        <v>675.0</v>
+        <v>514.0</v>
       </c>
       <c r="D5" t="n">
-        <v>959.0</v>
+        <v>584.0</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>11081.0</v>
+        <v>7996.0</v>
       </c>
       <c r="G5" t="n">
-        <v>6300.0</v>
+        <v>4546.0</v>
       </c>
       <c r="H5" t="s">
         <v>95</v>
       </c>
       <c r="I5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5" t="n">
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="R5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
       </c>
       <c r="Z5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA5" t="n">
         <v>0.0</v>
@@ -1038,76 +1056,76 @@
         <v>814762.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2992.0</v>
+        <v>2458.0</v>
       </c>
       <c r="D6" t="n">
-        <v>918.0</v>
+        <v>603.0</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>77948.0</v>
+        <v>61716.0</v>
       </c>
       <c r="G6" t="n">
-        <v>9567.0</v>
+        <v>7575.0</v>
       </c>
       <c r="H6" t="s">
         <v>96</v>
       </c>
       <c r="I6" t="n">
-        <v>618.0</v>
+        <v>499.0</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
-        <v>617.0</v>
+        <v>498.0</v>
       </c>
       <c r="R6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W6" t="n">
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
       </c>
       <c r="Z6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AA6" t="n">
         <v>4.0</v>
@@ -1121,76 +1139,76 @@
         <v>348503.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1399.0</v>
+        <v>1139.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1004.0</v>
+        <v>654.0</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>39125.0</v>
+        <v>29890.0</v>
       </c>
       <c r="G7" t="n">
-        <v>11227.0</v>
+        <v>8577.0</v>
       </c>
       <c r="H7" t="s">
         <v>97</v>
       </c>
       <c r="I7" t="n">
-        <v>349.0</v>
+        <v>329.0</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
         <v>0.0</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7" t="n">
-        <v>349.0</v>
+        <v>329.0</v>
       </c>
       <c r="R7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
       </c>
       <c r="Z7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA7" t="n">
         <v>0.0</v>
@@ -1204,76 +1222,76 @@
         <v>1442337.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5696.0</v>
+        <v>4588.0</v>
       </c>
       <c r="D8" t="n">
-        <v>987.0</v>
+        <v>636.0</v>
       </c>
       <c r="E8" t="s">
         <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>153289.0</v>
+        <v>112620.0</v>
       </c>
       <c r="G8" t="n">
-        <v>10628.0</v>
+        <v>7808.0</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I8" t="n">
-        <v>1234.0</v>
+        <v>1009.0</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8" t="n">
         <v>0.0</v>
       </c>
       <c r="L8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
       </c>
       <c r="N8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="n">
-        <v>1234.0</v>
+        <v>1009.0</v>
       </c>
       <c r="R8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
       </c>
       <c r="T8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W8" t="n">
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
       </c>
       <c r="Z8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA8" t="n">
         <v>0.0</v>
@@ -1287,76 +1305,76 @@
         <v>1043132.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4067.0</v>
+        <v>3271.0</v>
       </c>
       <c r="D9" t="n">
-        <v>975.0</v>
+        <v>627.0</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
       </c>
       <c r="F9" t="n">
-        <v>109725.0</v>
+        <v>79543.0</v>
       </c>
       <c r="G9" t="n">
-        <v>10519.0</v>
+        <v>7625.0</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" t="n">
-        <v>1121.0</v>
+        <v>908.0</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" t="n">
         <v>0.0</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O9" t="n">
         <v>0.0</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="n">
-        <v>1121.0</v>
+        <v>908.0</v>
       </c>
       <c r="R9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
       </c>
       <c r="T9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA9" t="n">
         <v>0.0</v>
@@ -1370,76 +1388,76 @@
         <v>325496.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1429.0</v>
+        <v>1172.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1098.0</v>
+        <v>720.0</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="n">
-        <v>39914.0</v>
+        <v>30210.0</v>
       </c>
       <c r="G10" t="n">
-        <v>12263.0</v>
+        <v>9281.0</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O10" t="n">
         <v>0.0</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="R10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
       </c>
       <c r="T10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
       </c>
       <c r="V10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
       </c>
       <c r="Z10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA10" t="n">
         <v>0.0</v>
@@ -1453,76 +1471,76 @@
         <v>73709.0</v>
       </c>
       <c r="C11" t="n">
-        <v>200.0</v>
+        <v>145.0</v>
       </c>
       <c r="D11" t="n">
-        <v>678.0</v>
+        <v>393.0</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
       </c>
       <c r="F11" t="n">
-        <v>3650.0</v>
+        <v>2867.0</v>
       </c>
       <c r="G11" t="n">
-        <v>4952.0</v>
+        <v>3890.0</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W11" t="n">
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA11" t="n">
         <v>0.0</v>
@@ -1536,76 +1554,76 @@
         <v>1459238.0</v>
       </c>
       <c r="C12" t="n">
-        <v>5037.0</v>
+        <v>4127.0</v>
       </c>
       <c r="D12" t="n">
-        <v>863.0</v>
+        <v>566.0</v>
       </c>
       <c r="E12" t="s">
         <v>69</v>
       </c>
       <c r="F12" t="n">
-        <v>230230.0</v>
+        <v>168786.0</v>
       </c>
       <c r="G12" t="n">
-        <v>15777.0</v>
+        <v>11567.0</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" t="n">
-        <v>1672.0</v>
+        <v>1365.0</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="n">
-        <v>1672.0</v>
+        <v>1363.0</v>
       </c>
       <c r="R12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
       </c>
       <c r="T12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="W12" t="n">
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="n">
         <v>0.0</v>
       </c>
       <c r="Z12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="n">
         <v>5.0</v>
@@ -1619,76 +1637,76 @@
         <v>694072.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2547.0</v>
+        <v>2038.0</v>
       </c>
       <c r="D13" t="n">
-        <v>917.0</v>
+        <v>587.0</v>
       </c>
       <c r="E13" t="s">
         <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>65614.0</v>
+        <v>46710.0</v>
       </c>
       <c r="G13" t="n">
-        <v>9453.0</v>
+        <v>6730.0</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" t="n">
-        <v>431.0</v>
+        <v>370.0</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K13" t="n">
         <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O13" t="n">
         <v>0.0</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q13" t="n">
-        <v>431.0</v>
+        <v>368.0</v>
       </c>
       <c r="R13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S13" t="n">
         <v>0.0</v>
       </c>
       <c r="T13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V13" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="n">
         <v>0.0</v>
       </c>
       <c r="Z13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="n">
         <v>2.0</v>
@@ -1702,76 +1720,76 @@
         <v>290969.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1087.0</v>
+        <v>892.0</v>
       </c>
       <c r="D14" t="n">
-        <v>934.0</v>
+        <v>613.0</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
       </c>
       <c r="F14" t="n">
-        <v>61863.0</v>
+        <v>45966.0</v>
       </c>
       <c r="G14" t="n">
-        <v>21261.0</v>
+        <v>15798.0</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" t="n">
-        <v>663.0</v>
+        <v>527.0</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14" t="n">
-        <v>663.0</v>
+        <v>527.0</v>
       </c>
       <c r="R14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
       </c>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="n">
         <v>0.0</v>
       </c>
       <c r="Z14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="n">
         <v>1.0</v>
@@ -1785,76 +1803,76 @@
         <v>196735.0</v>
       </c>
       <c r="C15" t="n">
-        <v>619.0</v>
+        <v>536.0</v>
       </c>
       <c r="D15" t="n">
-        <v>787.0</v>
+        <v>545.0</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>47621.0</v>
+        <v>36130.0</v>
       </c>
       <c r="G15" t="n">
-        <v>24206.0</v>
+        <v>18365.0</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" t="n">
-        <v>270.0</v>
+        <v>230.0</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q15" t="n">
-        <v>270.0</v>
+        <v>230.0</v>
       </c>
       <c r="R15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
       </c>
       <c r="T15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W15" t="n">
         <v>0.0</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="n">
         <v>0.0</v>
       </c>
       <c r="Z15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA15" t="n">
         <v>1.0</v>
@@ -1868,76 +1886,76 @@
         <v>277462.0</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0</v>
+        <v>661.0</v>
       </c>
       <c r="D16" t="n">
-        <v>706.0</v>
+        <v>476.0</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
       </c>
       <c r="F16" t="n">
-        <v>55132.0</v>
+        <v>39980.0</v>
       </c>
       <c r="G16" t="n">
-        <v>19870.0</v>
+        <v>14409.0</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I16" t="n">
-        <v>308.0</v>
+        <v>238.0</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q16" t="n">
-        <v>308.0</v>
+        <v>238.0</v>
       </c>
       <c r="R16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W16" t="n">
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y16" t="n">
         <v>0.0</v>
       </c>
       <c r="Z16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA16" t="n">
         <v>1.0</v>
@@ -1951,76 +1969,76 @@
         <v>825745.0</v>
       </c>
       <c r="C17" t="n">
-        <v>6220.0</v>
+        <v>5051.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1883.0</v>
+        <v>1223.0</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
       </c>
       <c r="F17" t="n">
-        <v>123199.0</v>
+        <v>87499.0</v>
       </c>
       <c r="G17" t="n">
-        <v>14920.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>1027.0</v>
+        <v>865.0</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
         <v>0.0</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O17" t="n">
         <v>0.0</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17" t="n">
-        <v>1027.0</v>
+        <v>865.0</v>
       </c>
       <c r="R17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y17" t="n">
         <v>0.0</v>
       </c>
       <c r="Z17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA17" t="n">
         <v>1.0</v>
@@ -2034,76 +2052,76 @@
         <v>416347.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2650.0</v>
+        <v>2098.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1591.0</v>
+        <v>1008.0</v>
       </c>
       <c r="E18" t="s">
         <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>51473.0</v>
+        <v>35196.0</v>
       </c>
       <c r="G18" t="n">
-        <v>12363.0</v>
+        <v>8454.0</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" t="n">
-        <v>495.0</v>
+        <v>418.0</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18" t="n">
-        <v>495.0</v>
+        <v>418.0</v>
       </c>
       <c r="R18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W18" t="n">
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y18" t="n">
         <v>0.0</v>
       </c>
       <c r="Z18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA18" t="n">
         <v>0.0</v>
@@ -2117,76 +2135,76 @@
         <v>43520.0</v>
       </c>
       <c r="C19" t="n">
-        <v>457.0</v>
+        <v>415.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2625.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>12148.0</v>
+        <v>9078.0</v>
       </c>
       <c r="G19" t="n">
-        <v>27914.0</v>
+        <v>20859.0</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S19" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W19" t="n">
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y19" t="n">
         <v>0.0</v>
       </c>
       <c r="Z19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA19" t="n">
         <v>0.0</v>
@@ -2200,76 +2218,76 @@
         <v>38108.0</v>
       </c>
       <c r="C20" t="n">
-        <v>516.0</v>
+        <v>413.0</v>
       </c>
       <c r="D20" t="n">
-        <v>3385.0</v>
+        <v>2168.0</v>
       </c>
       <c r="E20" t="s">
         <v>77</v>
       </c>
       <c r="F20" t="n">
-        <v>6147.0</v>
+        <v>4589.0</v>
       </c>
       <c r="G20" t="n">
-        <v>16130.0</v>
+        <v>12042.0</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="R20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S20" t="n">
         <v>0.0</v>
       </c>
       <c r="T20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W20" t="n">
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y20" t="n">
         <v>0.0</v>
       </c>
       <c r="Z20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA20" t="n">
         <v>0.0</v>
@@ -2283,76 +2301,76 @@
         <v>162157.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1596.0</v>
+        <v>1339.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2461.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
       </c>
       <c r="F21" t="n">
-        <v>15592.0</v>
+        <v>11536.0</v>
       </c>
       <c r="G21" t="n">
-        <v>9615.0</v>
+        <v>7114.0</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" t="n">
-        <v>393.0</v>
+        <v>338.0</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21" t="n">
-        <v>393.0</v>
+        <v>338.0</v>
       </c>
       <c r="R21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0</v>
       </c>
       <c r="Z21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA21" t="n">
         <v>1.0</v>
@@ -2366,49 +2384,49 @@
         <v>36819.0</v>
       </c>
       <c r="C22" t="n">
-        <v>339.0</v>
+        <v>253.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2302.0</v>
+        <v>1374.0</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
       </c>
       <c r="F22" t="n">
-        <v>15651.0</v>
+        <v>11404.0</v>
       </c>
       <c r="G22" t="n">
-        <v>42508.0</v>
+        <v>30973.0</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="R22" t="s">
         <v>173</v>
@@ -2417,25 +2435,25 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W22" t="n">
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
       </c>
       <c r="Z22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA22" t="n">
         <v>0.0</v>
@@ -2449,76 +2467,76 @@
         <v>128794.0</v>
       </c>
       <c r="C23" t="n">
-        <v>662.0</v>
+        <v>533.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.0</v>
+        <v>828.0</v>
       </c>
       <c r="E23" t="s">
         <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>22188.0</v>
+        <v>15696.0</v>
       </c>
       <c r="G23" t="n">
-        <v>17228.0</v>
+        <v>12187.0</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I23" t="n">
-        <v>86.0</v>
+        <v>68.0</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O23" t="n">
         <v>0.0</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.0</v>
+        <v>68.0</v>
       </c>
       <c r="R23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S23" t="n">
         <v>0.0</v>
       </c>
       <c r="T23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
       </c>
       <c r="Z23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA23" t="n">
         <v>0.0</v>
@@ -2532,79 +2550,79 @@
         <v>2546396.0</v>
       </c>
       <c r="C24" t="n">
-        <v>14492.0</v>
+        <v>11631.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1423.0</v>
+        <v>914.0</v>
       </c>
       <c r="E24" t="s">
         <v>81</v>
       </c>
       <c r="F24" t="n">
-        <v>225787.0</v>
+        <v>170605.0</v>
       </c>
       <c r="G24" t="n">
-        <v>8867.0</v>
+        <v>6700.0</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I24" t="n">
-        <v>2524.0</v>
+        <v>2078.0</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24" t="n">
-        <v>2524.0</v>
+        <v>2078.0</v>
       </c>
       <c r="R24" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="S24" t="n">
         <v>0.0</v>
       </c>
       <c r="T24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
       </c>
       <c r="V24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
       </c>
       <c r="Z24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -2615,76 +2633,76 @@
         <v>16293.0</v>
       </c>
       <c r="C25" t="n">
-        <v>249.0</v>
+        <v>220.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3821.0</v>
+        <v>2701.0</v>
       </c>
       <c r="E25" t="s">
         <v>82</v>
       </c>
       <c r="F25" t="n">
-        <v>1390.0</v>
+        <v>1037.0</v>
       </c>
       <c r="G25" t="n">
-        <v>8531.0</v>
+        <v>6365.0</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I25" t="n">
         <v>31.0</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
       <c r="L25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25" t="n">
         <v>31.0</v>
       </c>
       <c r="R25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S25" t="n">
         <v>0.0</v>
       </c>
       <c r="T25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W25" t="n">
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
       </c>
       <c r="Z25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA25" t="n">
         <v>0.0</v>
@@ -2698,76 +2716,76 @@
         <v>55309.0</v>
       </c>
       <c r="C26" t="n">
-        <v>710.0</v>
+        <v>588.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3209.0</v>
+        <v>2126.0</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
       <c r="F26" t="n">
-        <v>5089.0</v>
+        <v>3747.0</v>
       </c>
       <c r="G26" t="n">
-        <v>9201.0</v>
+        <v>6775.0</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I26" t="n">
-        <v>65.0</v>
+        <v>47.0</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.0</v>
+        <v>47.0</v>
       </c>
       <c r="R26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S26" t="n">
         <v>0.0</v>
       </c>
       <c r="T26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
       </c>
       <c r="V26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W26" t="n">
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
       </c>
       <c r="Z26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
@@ -2781,76 +2799,76 @@
         <v>40851.0</v>
       </c>
       <c r="C27" t="n">
-        <v>240.0</v>
+        <v>187.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1469.0</v>
+        <v>916.0</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
       </c>
       <c r="F27" t="n">
-        <v>4500.0</v>
+        <v>3305.0</v>
       </c>
       <c r="G27" t="n">
-        <v>11016.0</v>
+        <v>8090.0</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I27" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
       </c>
       <c r="N27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q27" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="R27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S27" t="n">
         <v>0.0</v>
       </c>
       <c r="T27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
       <c r="X27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y27" t="n">
         <v>0.0</v>
       </c>
       <c r="Z27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA27" t="n">
         <v>0.0</v>
@@ -2864,76 +2882,76 @@
         <v>514504.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4489.0</v>
+        <v>3742.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2181.0</v>
+        <v>1455.0</v>
       </c>
       <c r="E28" t="s">
         <v>85</v>
       </c>
       <c r="F28" t="n">
-        <v>44380.0</v>
+        <v>33112.0</v>
       </c>
       <c r="G28" t="n">
-        <v>8626.0</v>
+        <v>6436.0</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I28" t="n">
-        <v>896.0</v>
+        <v>749.0</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28" t="n">
-        <v>896.0</v>
+        <v>749.0</v>
       </c>
       <c r="R28" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="S28" t="n">
         <v>0.0</v>
       </c>
       <c r="T28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W28" t="n">
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
       </c>
       <c r="Z28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA28" t="n">
         <v>1.0</v>
@@ -2947,79 +2965,79 @@
         <v>83107.0</v>
       </c>
       <c r="C29" t="n">
-        <v>354.0</v>
+        <v>301.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1065.0</v>
+        <v>724.0</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
       </c>
       <c r="F29" t="n">
-        <v>5666.0</v>
+        <v>3713.0</v>
       </c>
       <c r="G29" t="n">
-        <v>6818.0</v>
+        <v>4468.0</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I29" t="n">
-        <v>203.0</v>
+        <v>158.0</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
       <c r="L29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O29" t="n">
         <v>0.0</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0</v>
+        <v>158.0</v>
       </c>
       <c r="R29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="S29" t="n">
         <v>0.0</v>
       </c>
       <c r="T29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
       </c>
       <c r="V29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W29" t="n">
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y29" t="n">
         <v>0.0</v>
       </c>
       <c r="Z29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -3030,76 +3048,76 @@
         <v>282909.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1785.0</v>
+        <v>1407.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1577.0</v>
+        <v>995.0</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
       </c>
       <c r="F30" t="n">
-        <v>24522.0</v>
+        <v>19018.0</v>
       </c>
       <c r="G30" t="n">
-        <v>8668.0</v>
+        <v>6722.0</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I30" t="n">
-        <v>165.0</v>
+        <v>133.0</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O30" t="n">
         <v>0.0</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.0</v>
+        <v>133.0</v>
       </c>
       <c r="R30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="S30" t="n">
         <v>0.0</v>
       </c>
       <c r="T30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y30" t="n">
         <v>0.0</v>
       </c>
       <c r="Z30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA30" t="n">
         <v>0.0</v>
@@ -3113,76 +3131,76 @@
         <v>1553423.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6665.0</v>
+        <v>5186.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1073.0</v>
+        <v>668.0</v>
       </c>
       <c r="E31" t="s">
         <v>88</v>
       </c>
       <c r="F31" t="n">
-        <v>140240.0</v>
+        <v>106673.0</v>
       </c>
       <c r="G31" t="n">
-        <v>9028.0</v>
+        <v>6867.0</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I31" t="n">
-        <v>1149.0</v>
+        <v>949.0</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O31" t="n">
         <v>0.0</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31" t="n">
-        <v>1149.0</v>
+        <v>949.0</v>
       </c>
       <c r="R31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y31" t="n">
         <v>0.0</v>
       </c>
       <c r="Z31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA31" t="n">
         <v>0.0</v>
@@ -3196,76 +3214,76 @@
         <v>551082.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1883.0</v>
+        <v>1587.0</v>
       </c>
       <c r="D32" t="n">
-        <v>854.0</v>
+        <v>576.0</v>
       </c>
       <c r="E32" t="s">
         <v>89</v>
       </c>
       <c r="F32" t="n">
-        <v>46648.0</v>
+        <v>36571.0</v>
       </c>
       <c r="G32" t="n">
-        <v>8465.0</v>
+        <v>6636.0</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I32" t="n">
-        <v>642.0</v>
+        <v>549.0</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
       </c>
       <c r="L32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
       </c>
       <c r="N32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q32" t="n">
-        <v>641.0</v>
+        <v>548.0</v>
       </c>
       <c r="R32" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="S32" t="n">
         <v>0.0</v>
       </c>
       <c r="T32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W32" t="n">
         <v>0.0</v>
       </c>
       <c r="X32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y32" t="n">
         <v>1.0</v>
       </c>
       <c r="Z32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AA32" t="n">
         <v>2.0</v>
@@ -3279,76 +3297,76 @@
         <v>200096.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1229.0</v>
+        <v>1046.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1536.0</v>
+        <v>1045.0</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
       <c r="F33" t="n">
-        <v>19093.0</v>
+        <v>15011.0</v>
       </c>
       <c r="G33" t="n">
-        <v>9542.0</v>
+        <v>7502.0</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I33" t="n">
-        <v>287.0</v>
+        <v>251.0</v>
       </c>
       <c r="J33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O33" t="n">
         <v>0.0</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q33" t="n">
-        <v>287.0</v>
+        <v>251.0</v>
       </c>
       <c r="R33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="S33" t="n">
         <v>0.0</v>
       </c>
       <c r="T33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W33" t="n">
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y33" t="n">
         <v>0.0</v>
       </c>
       <c r="Z33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA33" t="n">
         <v>2.0</v>
@@ -3362,76 +3380,76 @@
         <v>350986.0</v>
       </c>
       <c r="C34" t="n">
-        <v>654.0</v>
+        <v>541.0</v>
       </c>
       <c r="D34" t="n">
-        <v>466.0</v>
+        <v>308.0</v>
       </c>
       <c r="E34" t="s">
         <v>91</v>
       </c>
       <c r="F34" t="n">
-        <v>27555.0</v>
+        <v>21560.0</v>
       </c>
       <c r="G34" t="n">
-        <v>7851.0</v>
+        <v>6143.0</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I34" t="n">
-        <v>355.0</v>
+        <v>298.0</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M34" t="n">
         <v>0.0</v>
       </c>
       <c r="N34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O34" t="n">
         <v>0.0</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34" t="n">
-        <v>354.0</v>
+        <v>297.0</v>
       </c>
       <c r="R34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S34" t="n">
         <v>0.0</v>
       </c>
       <c r="T34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W34" t="n">
         <v>0.0</v>
       </c>
       <c r="X34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y34" t="n">
         <v>1.0</v>
       </c>
       <c r="Z34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AA34" t="n">
         <v>0.0</v>
